--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon2-Itga5.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H2">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I2">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J2">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N2">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O2">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P2">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q2">
-        <v>11.43232536299555</v>
+        <v>9.100299936861335</v>
       </c>
       <c r="R2">
-        <v>102.89092826696</v>
+        <v>81.90269943175201</v>
       </c>
       <c r="S2">
-        <v>0.01235001616378448</v>
+        <v>0.01457792047542534</v>
       </c>
       <c r="T2">
-        <v>0.01235001616378449</v>
+        <v>0.01457792047542534</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H3">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J3">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O3">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P3">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q3">
-        <v>9.28977623336</v>
+        <v>22.602476664796</v>
       </c>
       <c r="R3">
-        <v>83.60798610024</v>
+        <v>203.422289983164</v>
       </c>
       <c r="S3">
-        <v>0.01003548123387866</v>
+        <v>0.03620727994166482</v>
       </c>
       <c r="T3">
-        <v>0.01003548123387866</v>
+        <v>0.03620727994166482</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3355466666666667</v>
+        <v>0.8164013333333333</v>
       </c>
       <c r="H4">
-        <v>1.00664</v>
+        <v>2.449204</v>
       </c>
       <c r="I4">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="J4">
-        <v>0.02388108083384315</v>
+        <v>0.05618115571687973</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>12.377873</v>
       </c>
       <c r="O4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P4">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q4">
-        <v>1.384451341857778</v>
+        <v>3.368437340343556</v>
       </c>
       <c r="R4">
-        <v>12.46006207672</v>
+        <v>30.315936063092</v>
       </c>
       <c r="S4">
-        <v>0.001495583436180002</v>
+        <v>0.005395955299789569</v>
       </c>
       <c r="T4">
-        <v>0.001495583436180002</v>
+        <v>0.005395955299789569</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>38.635086</v>
       </c>
       <c r="I5">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J5">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N5">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O5">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P5">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q5">
-        <v>438.7754048908392</v>
+        <v>143.553117946252</v>
       </c>
       <c r="R5">
-        <v>3948.978644017554</v>
+        <v>1291.978061516268</v>
       </c>
       <c r="S5">
-        <v>0.4739965991707101</v>
+        <v>0.2299601059238916</v>
       </c>
       <c r="T5">
-        <v>0.4739965991707103</v>
+        <v>0.2299601059238916</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>38.635086</v>
       </c>
       <c r="I6">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J6">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O6">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P6">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q6">
         <v>356.543852515914</v>
@@ -818,10 +818,10 @@
         <v>3208.894672643226</v>
       </c>
       <c r="S6">
-        <v>0.3851641902987048</v>
+        <v>0.5711534745053068</v>
       </c>
       <c r="T6">
-        <v>0.385164190298705</v>
+        <v>0.5711534745053068</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>38.635086</v>
       </c>
       <c r="I7">
-        <v>0.9165616424823987</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="J7">
-        <v>0.9165616424823989</v>
+        <v>0.8862323361798529</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>12.377873</v>
       </c>
       <c r="O7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P7">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q7">
         <v>53.13557642800868</v>
@@ -880,10 +880,10 @@
         <v>478.220187852078</v>
       </c>
       <c r="S7">
-        <v>0.05740085301298368</v>
+        <v>0.08511875575065442</v>
       </c>
       <c r="T7">
-        <v>0.05740085301298369</v>
+        <v>0.08511875575065442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H8">
         <v>2.51047</v>
       </c>
       <c r="I8">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J8">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.07074633333333</v>
+        <v>11.146846</v>
       </c>
       <c r="N8">
-        <v>102.212239</v>
+        <v>33.440538</v>
       </c>
       <c r="O8">
-        <v>0.5171464495142372</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="P8">
-        <v>0.5171464495142373</v>
+        <v>0.2594806085672136</v>
       </c>
       <c r="Q8">
-        <v>28.51119551581444</v>
+        <v>9.327940825873336</v>
       </c>
       <c r="R8">
-        <v>256.6007596423299</v>
+        <v>83.95146743286001</v>
       </c>
       <c r="S8">
-        <v>0.03079983417974253</v>
+        <v>0.01494258216789661</v>
       </c>
       <c r="T8">
-        <v>0.03079983417974255</v>
+        <v>0.01494258216789661</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H9">
         <v>2.51047</v>
       </c>
       <c r="I9">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J9">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>83.05649099999999</v>
       </c>
       <c r="O9">
-        <v>0.420227262899125</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="P9">
-        <v>0.4202272628991251</v>
+        <v>0.6444737471070977</v>
       </c>
       <c r="Q9">
         <v>23.16786988453</v>
@@ -1004,10 +1004,10 @@
         <v>208.51082896077</v>
       </c>
       <c r="S9">
-        <v>0.02502759136654152</v>
+        <v>0.03711299266012603</v>
       </c>
       <c r="T9">
-        <v>0.02502759136654153</v>
+        <v>0.03711299266012603</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8368233333333333</v>
+        <v>0.8368233333333334</v>
       </c>
       <c r="H10">
         <v>2.51047</v>
       </c>
       <c r="I10">
-        <v>0.05955727668375805</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="J10">
-        <v>0.05955727668375806</v>
+        <v>0.05758650810326746</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>12.377873</v>
       </c>
       <c r="O10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="P10">
-        <v>0.06262628758663767</v>
+        <v>0.09604564432568881</v>
       </c>
       <c r="Q10">
-        <v>3.452697647812222</v>
+        <v>3.452697647812223</v>
       </c>
       <c r="R10">
         <v>31.07427883031</v>
       </c>
       <c r="S10">
-        <v>0.003729851137473982</v>
+        <v>0.005530933275244823</v>
       </c>
       <c r="T10">
-        <v>0.003729851137473983</v>
+        <v>0.005530933275244823</v>
       </c>
     </row>
   </sheetData>
